--- a/Documents/Week 8/08_Team3WorkRequestRequirementsTraceabilityMatrixTemplate.xlsx
+++ b/Documents/Week 8/08_Team3WorkRequestRequirementsTraceabilityMatrixTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepo\UMGC_495_7381_Work_Request\Documents\Week7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepo\UMGC_495_7381_Work_Request\Documents\Week 8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B97397-6C3F-40BD-AB3A-C020BD3B5473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBCCB22-AEC4-4830-BF18-F37CFB62112C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="55">
   <si>
     <t>Project Name</t>
   </si>
@@ -152,9 +152,6 @@
   </si>
   <si>
     <t>Session timeout implementation</t>
-  </si>
-  <si>
-    <t>In progress</t>
   </si>
   <si>
     <t>Business Need, Justification</t>
@@ -906,8 +903,8 @@
   </sheetPr>
   <dimension ref="A1:J88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1014,19 +1011,19 @@
         <v>10</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>26</v>
@@ -1046,19 +1043,19 @@
         <v>16</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J6" s="5">
         <v>1001</v>
@@ -1078,19 +1075,19 @@
         <v>16</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J7" s="3">
         <v>1002</v>
@@ -1110,19 +1107,19 @@
         <v>18</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>23</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J8" s="19">
         <v>1003</v>
@@ -1142,19 +1139,19 @@
         <v>16</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J9" s="3">
         <v>1004</v>
@@ -1174,19 +1171,19 @@
         <v>16</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J10" s="3">
         <v>1005</v>
@@ -1209,16 +1206,16 @@
         <v>13</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J11" s="3">
         <v>1006</v>
@@ -1238,19 +1235,19 @@
         <v>18</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J12" s="3">
         <v>1007</v>
@@ -1273,16 +1270,16 @@
         <v>13</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J13" s="3">
         <v>1008</v>

--- a/Documents/Week 8/08_Team3WorkRequestRequirementsTraceabilityMatrixTemplate.xlsx
+++ b/Documents/Week 8/08_Team3WorkRequestRequirementsTraceabilityMatrixTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepo\UMGC_495_7381_Work_Request\Documents\Week 8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBCCB22-AEC4-4830-BF18-F37CFB62112C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3B5415-2E84-4342-A74F-5FB2B0F17BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,18 @@
     <definedName name="Text8" localSheetId="0">'Traceability Template'!#REF!</definedName>
     <definedName name="Text9" localSheetId="0">'Traceability Template'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -903,8 +914,8 @@
   </sheetPr>
   <dimension ref="A1:J88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>

--- a/Documents/Week 8/08_Team3WorkRequestRequirementsTraceabilityMatrixTemplate.xlsx
+++ b/Documents/Week 8/08_Team3WorkRequestRequirementsTraceabilityMatrixTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepo\UMGC_495_7381_Work_Request\Documents\Week 8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3B5415-2E84-4342-A74F-5FB2B0F17BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02ADD04A-74AC-4C56-B985-24279560C528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="63">
   <si>
     <t>Project Name</t>
   </si>
@@ -159,9 +159,6 @@
     <t>REQ-008</t>
   </si>
   <si>
-    <t>User can interact with all work requests</t>
-  </si>
-  <si>
     <t>Session timeout implementation</t>
   </si>
   <si>
@@ -208,6 +205,33 @@
   </si>
   <si>
     <t>Discontinued</t>
+  </si>
+  <si>
+    <t>REQ-009</t>
+  </si>
+  <si>
+    <t>Pulling data from database into UI</t>
+  </si>
+  <si>
+    <t>for functionality purposes</t>
+  </si>
+  <si>
+    <t>REQ-0010</t>
+  </si>
+  <si>
+    <t>importing data from UI into database</t>
+  </si>
+  <si>
+    <t>REQ-0011</t>
+  </si>
+  <si>
+    <t>Analytics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user friendly </t>
+  </si>
+  <si>
+    <t>User can interact with all work request functionalities.</t>
   </si>
 </sst>
 </file>
@@ -490,7 +514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -571,6 +595,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -915,7 +940,7 @@
   <dimension ref="A1:J88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1022,19 +1047,19 @@
         <v>10</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>26</v>
@@ -1054,19 +1079,19 @@
         <v>16</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J6" s="5">
         <v>1001</v>
@@ -1080,25 +1105,25 @@
         <v>11</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J7" s="3">
         <v>1002</v>
@@ -1112,25 +1137,25 @@
         <v>13</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>23</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J8" s="19">
         <v>1003</v>
@@ -1150,19 +1175,19 @@
         <v>16</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J9" s="3">
         <v>1004</v>
@@ -1182,53 +1207,53 @@
         <v>16</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J10" s="3">
         <v>1005</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:10" s="32" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="F11" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" s="3">
+      <c r="H11" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="19">
         <v>1006</v>
       </c>
     </row>
@@ -1246,19 +1271,19 @@
         <v>18</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J12" s="3">
         <v>1007</v>
@@ -1281,56 +1306,116 @@
         <v>13</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J13" s="3">
         <v>1008</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+    <row r="14" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1011</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
